--- a/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C8585E-8FA4-4245-94C7-F37AEEDAB269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0B763-2271-4868-9C67-57070D932534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 sm.sample_id AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
-Order by `File Name`</t>
+Order by `File Name`desc</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0B763-2271-4868-9C67-57070D932534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942183A-F648-42C0-9221-9CB2B22FB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -169,31 +169,7 @@
 file.file_type AS `File Type`,
 st.study_id AS `Study ID`,
 p.participant_id as `Participant ID`,
-null AS `Sample ID`,
-file.dcf_indexd_guid AS `GUID`,
-file.md5sum AS `MD5sum`
-UNION ALL
-MATCH (file:clinical_measure_file)
-MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-MATCH (st)&lt;-[:of_participant]-(p:participant)
-where  st.phs_accession in ['phs003111'] and p.participant_id in ['InptVlue']
-WITH file, st,
-['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-toInteger(floor(log(file.file_size)/log(1024))) as i,
-2 as precision
-WITH file, st,
-file.file_size /(1024^i) AS value,
-10^precision AS factor,
-units[i] as unit
-WITH file, st, unit,
-round(factor * value)/factor AS size
-RETURN DISTINCT
-file.file_name AS `File Name`,
-file.file_description AS `File Description`,
-file.file_type AS `File Type`,
-st.study_id AS `Study ID`,
-null as `Participant ID`,
-null AS `Sample ID`,
+'' AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
 UNION ALL
@@ -320,7 +296,7 @@
 sm.sample_id AS `Sample ID`,
 file.dcf_indexd_guid AS `GUID`,
 file.md5sum AS `MD5sum`
-Order by `File Name`desc</t>
+Order by `File Name` asc</t>
   </si>
 </sst>
 </file>
@@ -692,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_RowDataValidation_phs003111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A507754-A70A-45C9-B0C8-B4D956E7E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28908C-5F65-4A1E-8A78-A663D12B3FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 Order by sm.sample_id Limit 100</t>
   </si>
   <si>
-    <t>CALL {
+    <t xml:space="preserve">CALL {
 MATCH (file:clinical_measure_file)
         MATCH (p:participant)-[:of_clinical_measure_file]-(file)
         MATCH (st:study)&lt;-[:of_participant]-(p)
@@ -199,32 +199,6 @@
         CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
         st.study_id AS study_id,
         p.participant_id as participant_id,
-        "" AS sample_id,
-        file.dcf_indexd_guid AS guid,
-        file.md5sum AS md5sum
-        UNION ALL
-        MATCH (file:clinical_measure_file)
-        MATCH (st:study)&lt;-[:of_clinical_measure_file]-(file)
-        MATCH (st)&lt;-[:of_participant]-(p:participant)
-        Where p.participant_id IN ['InptVlue']
-        with file, st,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(file.file_size)/log(1024))) as i,
-        2 as precision
-        WITH file, st,
-        file.file_size /(1024^i) AS value,
-        10^precision AS factor,
-        units[i] as unit
-        WITH file, st, unit,
-        round(factor * value)/factor AS size
-        RETURN DISTINCT
-        file.file_name AS file_name,
-        'Clinical data' AS file_category,
-        file.file_description AS file_description,
-        file.file_type AS file_type,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS file_size,
-        st.study_id AS study_id,
-        "" as participant_id,
         "" AS sample_id,
         file.dcf_indexd_guid AS guid,
         file.md5sum AS md5sum
@@ -433,7 +407,7 @@
 sample_id As `Sample ID`,
 guid As `GUID`,
 md5sum As `MD5Sum`
-ORDER BY file_name LIMIT 100</t>
+ORDER BY file_name </t>
   </si>
 </sst>
 </file>
@@ -805,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
